--- a/资产负债表/688679.xlsx
+++ b/资产负债表/688679.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -784,70 +784,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-04 00:00:00</t>
+          <t>2020-12-18 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1315596935.77</v>
+        <v>1269538905.01</v>
       </c>
       <c r="P2" t="n">
-        <v>69788551.73999999</v>
+        <v>66064983.31</v>
       </c>
       <c r="Q2" t="n">
-        <v>348194115.47</v>
-      </c>
-      <c r="R2" t="n">
-        <v>136.6289980912</v>
-      </c>
+        <v>271129928.17</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>376160289.85</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.6077474298</v>
-      </c>
+        <v>277767010.42</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>115010497.08</v>
-      </c>
-      <c r="V2" t="n">
-        <v>8.6576223693</v>
-      </c>
+        <v>30525103.83</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>660797813.95</v>
+        <v>586812417.6</v>
       </c>
       <c r="X2" t="n">
-        <v>282990810.53</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>23.089919003</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>51456649.67</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>216.6178401985</v>
-      </c>
+        <v>238319310.03</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>654799121.8200001</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>35.3420571616</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>32.4098540751</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>29.6269636142</v>
-      </c>
+        <v>682726487.41</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>169.1677166675</v>
+        <v>172.6721338572</v>
       </c>
       <c r="AG2" t="n">
-        <v>50.2279836615</v>
+        <v>46.2224840282</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688679.xlsx
+++ b/资产负债表/688679.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,47 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1269538905.01</v>
+        <v>993579326.0700001</v>
       </c>
       <c r="P2" t="n">
-        <v>66064983.31</v>
+        <v>58075286.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>271129928.17</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>147147694.61</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-3.212520542</v>
+      </c>
       <c r="S2" t="n">
-        <v>277767010.42</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>378460373.04</v>
+      </c>
+      <c r="T2" t="n">
+        <v>34.4166805516</v>
+      </c>
       <c r="U2" t="n">
-        <v>30525103.83</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>105846690.34</v>
+      </c>
+      <c r="V2" t="n">
+        <v>17.2693486286</v>
+      </c>
       <c r="W2" t="n">
-        <v>586812417.6</v>
+        <v>509768797.73</v>
       </c>
       <c r="X2" t="n">
-        <v>238319310.03</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>229905757.37</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>21.2954485599</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>16251974.19</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>467.0117467074</v>
+      </c>
       <c r="AB2" t="n">
-        <v>682726487.41</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>483810528.34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>14.0415905835</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>21.4790108657</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>29.4941540729</v>
+      </c>
       <c r="AF2" t="n">
-        <v>172.6721338572</v>
+        <v>146.0888744226</v>
       </c>
       <c r="AG2" t="n">
-        <v>46.2224840282</v>
+        <v>51.306300801</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688679.xlsx
+++ b/资产负债表/688679.xlsx
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>993579326.0700001</v>
+        <v>1315596935.77</v>
       </c>
       <c r="P2" t="n">
-        <v>58075286.05</v>
+        <v>69788551.73999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>147147694.61</v>
+        <v>348194115.47</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.212520542</v>
+        <v>136.6289980912</v>
       </c>
       <c r="S2" t="n">
-        <v>378460373.04</v>
+        <v>376160289.85</v>
       </c>
       <c r="T2" t="n">
-        <v>34.4166805516</v>
+        <v>-0.6077474298</v>
       </c>
       <c r="U2" t="n">
-        <v>105846690.34</v>
+        <v>115010497.08</v>
       </c>
       <c r="V2" t="n">
-        <v>17.2693486286</v>
+        <v>8.6576223693</v>
       </c>
       <c r="W2" t="n">
-        <v>509768797.73</v>
+        <v>660797813.95</v>
       </c>
       <c r="X2" t="n">
-        <v>229905757.37</v>
+        <v>282990810.53</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.2954485599</v>
+        <v>23.089919003</v>
       </c>
       <c r="Z2" t="n">
-        <v>16251974.19</v>
+        <v>51456649.67</v>
       </c>
       <c r="AA2" t="n">
-        <v>467.0117467074</v>
+        <v>216.6178401985</v>
       </c>
       <c r="AB2" t="n">
-        <v>483810528.34</v>
+        <v>654799121.8200001</v>
       </c>
       <c r="AC2" t="n">
-        <v>14.0415905835</v>
+        <v>35.3420571616</v>
       </c>
       <c r="AD2" t="n">
-        <v>21.4790108657</v>
+        <v>32.4098540751</v>
       </c>
       <c r="AE2" t="n">
-        <v>29.4941540729</v>
+        <v>29.6269636142</v>
       </c>
       <c r="AF2" t="n">
-        <v>146.0888744226</v>
+        <v>169.1677166675</v>
       </c>
       <c r="AG2" t="n">
-        <v>51.306300801</v>
+        <v>50.2279836615</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
